--- a/data/xlsx/02062019.xlsx
+++ b/data/xlsx/02062019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\tiffany\susa\web-dev\police-logs\cleaned\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0141F34B-79EA-4207-B328-C20C806A6DB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2471A739-5D34-41A2-9F97-52CDC9ECD18D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{FA217A59-2F60-4B5E-974E-86093A84A6F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{4082978F-7A0F-498B-BA59-48C061B1B35C}"/>
   </bookViews>
   <sheets>
     <sheet name="02062019" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -393,7 +393,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -710,11 +709,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2FB799-A229-4965-8139-61FFC778697B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1C411D-E8B2-42A3-8A41-6602DE353B46}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+      <selection activeCell="E4" sqref="E4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,11 +815,11 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
+      <c r="F4" s="7">
+        <v>37.883069999999996</v>
+      </c>
+      <c r="G4" s="7">
+        <v>-122.302504</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>12</v>
@@ -870,11 +869,11 @@
       <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
+      <c r="F6" s="7">
+        <v>37.871011000000003</v>
+      </c>
+      <c r="G6" s="7">
+        <v>-122.253404</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>12</v>
@@ -1329,10 +1328,10 @@
       <c r="E23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>37.868490000000001</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>-122.261161</v>
       </c>
       <c r="H23" s="6" t="s">
@@ -1381,10 +1380,10 @@
       <c r="E25" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>37.868642000000001</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>-122.259063</v>
       </c>
       <c r="H25" s="6" t="s">
@@ -1449,5 +1448,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>